--- a/data-raw/_raw/vn/2019/rd_20190715-phen.xlsx
+++ b/data-raw/_raw/vn/2019/rd_20190715-phen.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -55,9 +55,6 @@
     <t>What: Plant phenology</t>
   </si>
   <si>
-    <t>stage_Vx</t>
-  </si>
-  <si>
     <t>plht_cm</t>
   </si>
   <si>
@@ -65,6 +62,18 @@
   </si>
   <si>
     <t>Collected by: Wyatt and Gina</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>V10</t>
+  </si>
+  <si>
+    <t>V11</t>
+  </si>
+  <si>
+    <t>V9</t>
   </si>
 </sst>
 </file>
@@ -459,8 +468,8 @@
   </sheetPr>
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -492,12 +501,12 @@
     </row>
     <row r="2" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -532,13 +541,13 @@
         <v>2</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>6</v>
@@ -571,8 +580,8 @@
       <c r="F7" s="18">
         <v>24</v>
       </c>
-      <c r="G7" s="11">
-        <v>10</v>
+      <c r="G7" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H7" s="11">
         <v>10</v>
@@ -599,8 +608,8 @@
       <c r="F8" s="18">
         <v>27</v>
       </c>
-      <c r="G8" s="11">
-        <v>10</v>
+      <c r="G8" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H8" s="11">
         <v>10</v>
@@ -627,8 +636,8 @@
       <c r="F9" s="18">
         <v>25</v>
       </c>
-      <c r="G9" s="11">
-        <v>10</v>
+      <c r="G9" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H9" s="11">
         <v>10</v>
@@ -659,8 +668,8 @@
         <v>68</v>
       </c>
       <c r="F10" s="18"/>
-      <c r="G10" s="18">
-        <v>9</v>
+      <c r="G10" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="H10" s="18">
         <v>9</v>
@@ -687,8 +696,8 @@
         <v>81</v>
       </c>
       <c r="F11" s="18"/>
-      <c r="G11" s="18">
-        <v>10</v>
+      <c r="G11" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H11" s="18">
         <v>10</v>
@@ -715,8 +724,8 @@
         <v>75</v>
       </c>
       <c r="F12" s="18"/>
-      <c r="G12" s="18">
-        <v>11</v>
+      <c r="G12" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="H12" s="18">
         <v>11</v>
@@ -747,8 +756,8 @@
         <v>80</v>
       </c>
       <c r="F13" s="18"/>
-      <c r="G13" s="18">
-        <v>10</v>
+      <c r="G13" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H13" s="18">
         <v>10</v>
@@ -775,8 +784,8 @@
         <v>86</v>
       </c>
       <c r="F14" s="18"/>
-      <c r="G14" s="18">
-        <v>11</v>
+      <c r="G14" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="H14" s="18">
         <v>11</v>
@@ -803,8 +812,8 @@
         <v>82</v>
       </c>
       <c r="F15" s="18"/>
-      <c r="G15" s="18">
-        <v>10</v>
+      <c r="G15" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H15" s="18">
         <v>10</v>
@@ -835,8 +844,8 @@
         <v>66</v>
       </c>
       <c r="F16" s="18"/>
-      <c r="G16" s="18">
-        <v>11</v>
+      <c r="G16" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="H16" s="18">
         <v>11</v>
@@ -863,8 +872,8 @@
         <v>72</v>
       </c>
       <c r="F17" s="18"/>
-      <c r="G17" s="18">
-        <v>11</v>
+      <c r="G17" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="H17" s="18">
         <v>11</v>
@@ -891,8 +900,8 @@
         <v>67.5</v>
       </c>
       <c r="F18" s="18"/>
-      <c r="G18" s="18">
-        <v>11</v>
+      <c r="G18" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="H18" s="18">
         <v>11</v>
@@ -923,8 +932,8 @@
         <v>78</v>
       </c>
       <c r="F19" s="18"/>
-      <c r="G19" s="18">
-        <v>11</v>
+      <c r="G19" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="H19" s="18">
         <v>11</v>
@@ -951,8 +960,8 @@
         <v>77</v>
       </c>
       <c r="F20" s="19"/>
-      <c r="G20" s="19">
-        <v>11</v>
+      <c r="G20" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="H20" s="19">
         <v>11</v>
@@ -978,8 +987,8 @@
         <v>71</v>
       </c>
       <c r="F21" s="19"/>
-      <c r="G21" s="19">
-        <v>10</v>
+      <c r="G21" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H21" s="19">
         <v>10</v>
@@ -1009,8 +1018,8 @@
         <v>85</v>
       </c>
       <c r="F22" s="19"/>
-      <c r="G22" s="19">
-        <v>11</v>
+      <c r="G22" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="H22" s="19">
         <v>11</v>
@@ -1036,8 +1045,8 @@
         <v>83</v>
       </c>
       <c r="F23" s="19"/>
-      <c r="G23" s="19">
-        <v>11</v>
+      <c r="G23" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="H23" s="19">
         <v>11</v>
@@ -1063,8 +1072,8 @@
         <v>84</v>
       </c>
       <c r="F24" s="19"/>
-      <c r="G24" s="19">
-        <v>10</v>
+      <c r="G24" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H24" s="19">
         <v>10</v>
@@ -1094,8 +1103,8 @@
         <v>60</v>
       </c>
       <c r="F25" s="19"/>
-      <c r="G25" s="19">
-        <v>10</v>
+      <c r="G25" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H25" s="19">
         <v>10</v>
@@ -1121,8 +1130,8 @@
         <v>67</v>
       </c>
       <c r="F26" s="19"/>
-      <c r="G26" s="19">
-        <v>10</v>
+      <c r="G26" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H26" s="19">
         <v>10</v>
@@ -1148,8 +1157,8 @@
         <v>52</v>
       </c>
       <c r="F27" s="19"/>
-      <c r="G27" s="19">
-        <v>10</v>
+      <c r="G27" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H27" s="19">
         <v>10</v>
@@ -1179,8 +1188,8 @@
         <v>73</v>
       </c>
       <c r="F28" s="20"/>
-      <c r="G28" s="20">
-        <v>11</v>
+      <c r="G28" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="H28" s="20">
         <v>11</v>
@@ -1200,8 +1209,8 @@
         <v>72</v>
       </c>
       <c r="F29" s="20"/>
-      <c r="G29" s="20">
-        <v>11</v>
+      <c r="G29" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="H29" s="20">
         <v>11</v>
@@ -1221,8 +1230,8 @@
         <v>70</v>
       </c>
       <c r="F30" s="20"/>
-      <c r="G30" s="20">
-        <v>10</v>
+      <c r="G30" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="H30" s="20">
         <v>10</v>
